--- a/Descriptive Statistics.xlsx
+++ b/Descriptive Statistics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brandon\Documents\Grad School\Urban &amp; Regional (ECON 8080)\Regional Inequality\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEB25E6-441B-4830-B62C-E14C48202D9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72212979-5C18-447E-A9BA-2D1863319A89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{611C265D-CABF-4C3E-A783-B0B1D0227AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Def of Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Variable Name</t>
   </si>
@@ -114,21 +115,6 @@
     <t>4th Quintile Income</t>
   </si>
   <si>
-    <t>1quintinc</t>
-  </si>
-  <si>
-    <t>2quintinc</t>
-  </si>
-  <si>
-    <t>3quintinc</t>
-  </si>
-  <si>
-    <t>4quintinc</t>
-  </si>
-  <si>
-    <t>5quintinc</t>
-  </si>
-  <si>
     <t>Percent (0 - 100)</t>
   </si>
   <si>
@@ -139,6 +125,63 @@
   </si>
   <si>
     <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Measure of statistical dispersion intended to represent the income or wealth distribution of a population</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Percentage of unemployed individuals currently in the labor force</t>
+  </si>
+  <si>
+    <t>Average income earned per person in a given area</t>
+  </si>
+  <si>
+    <t>Number of people in a given area</t>
+  </si>
+  <si>
+    <t>Percentage of people at least 25 years of age with a HS diploma or further education</t>
+  </si>
+  <si>
+    <t>Definition of Variables</t>
+  </si>
+  <si>
+    <t>Percent of persons living in a family whose total family income is below the poverty threshold appropriate for that family</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>UNEMP</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>POVERTY</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>PERCAPIN</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Number of People</t>
   </si>
 </sst>
 </file>
@@ -150,9 +193,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,18 +228,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -225,29 +262,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -860,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC798B-67A7-43F6-B903-379722A3C1F6}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,67 +929,69 @@
     <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.77734375" style="18" customWidth="1"/>
     <col min="10" max="12" width="8.88671875" style="1"/>
     <col min="13" max="19" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="20.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="str">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="str">
         <f>T3</f>
         <v>GINI</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="8" t="str">
+        <f>U3</f>
+        <v>GINI</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1">
@@ -942,77 +1001,87 @@
         <f t="array" ref="E3:I5">TRANSPOSE([1]data!$D$304:$F$308)</f>
         <v>300</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="13">
         <v>0.4184114391043332</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>0.34576948610000002</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>0.55832815319999995</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="13">
         <v>0.4184114391043332</v>
       </c>
       <c r="J3" s="2"/>
       <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="U3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1">
         <v>2000</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="13">
         <v>0.42587717337848935</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="13">
         <v>0.34289793063089791</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="13">
         <v>0.58546425266172863</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="13">
         <v>0.42587717337848935</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1">
         <v>2010</v>
       </c>
       <c r="E5" s="1">
         <v>300</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="13">
         <v>0.4266466666666669</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="14">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="14">
         <v>0.54800000000000004</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="14">
         <v>0.4266466666666669</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="str">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="str">
         <f>T6</f>
         <v>Unemployment</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <f>D9</f>
@@ -1022,19 +1091,19 @@
         <f>M6</f>
         <v>300</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="15">
         <f>N6/100</f>
         <v>6.7226666666666685E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="15">
         <f t="shared" ref="G6:G8" si="0">O6/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="15">
         <f t="shared" ref="H6:H8" si="1">P6/100</f>
         <v>0.153</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="15">
         <f t="shared" ref="I6:I8" si="2">Q6/100</f>
         <v>6.7226666666666685E-2</v>
       </c>
@@ -1057,9 +1126,17 @@
       <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="U6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1">
         <f>D10</f>
         <v>2000</v>
@@ -1068,19 +1145,19 @@
         <f t="shared" ref="E7:E8" si="3">M7</f>
         <v>300</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="15">
         <f t="shared" ref="F7:F8" si="4">N7/100</f>
         <v>4.3626666666666696E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>1.9E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>0.105</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="15">
         <f t="shared" si="2"/>
         <v>4.3626666666666696E-2</v>
       </c>
@@ -1100,8 +1177,10 @@
         <v>4.3626666666666694</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1">
         <f>D11</f>
         <v>2010</v>
@@ -1110,19 +1189,19 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="15">
         <f t="shared" si="4"/>
         <v>0.11216666666666665</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
         <v>0.11216666666666665</v>
       </c>
@@ -1142,16 +1221,16 @@
         <v>11.216666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="str">
-        <f t="shared" ref="A9:A35" si="5">T9</f>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="str">
+        <f t="shared" ref="A9:B9" si="5">T9</f>
         <v>Income</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <f>D3</f>
@@ -1161,24 +1240,32 @@
         <f t="array" ref="E9:I11">TRANSPOSE([1]data!$J$304:$L$308)</f>
         <v>300</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="16">
         <v>10975.436666666666</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="16">
         <v>5153</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="16">
         <v>20426</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="16">
         <v>10975.436666666666</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="U9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1">
         <f>D4</f>
         <v>2000</v>
@@ -1186,21 +1273,23 @@
       <c r="E10" s="1">
         <v>300</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="16">
         <v>17565.82</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="16">
         <v>9716</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="16">
         <v>33109</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="16">
         <v>17565.82</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="1">
         <f>D5</f>
         <v>2010</v>
@@ -1208,514 +1297,635 @@
       <c r="E11" s="1">
         <v>300</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="16">
         <v>24400.09</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="16">
         <v>10767</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="16">
         <v>53680</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="16">
         <v>24400.09</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="str">
-        <f t="shared" ref="A12:A35" si="6">T12</f>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f t="shared" ref="A12:B12" si="6">T12</f>
         <v>Population</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="1">
-        <f>D3</f>
+        <f t="shared" ref="D12:D17" si="7">D3</f>
         <v>1990</v>
       </c>
       <c r="E12" s="1">
         <f t="array" ref="E12:I14">TRANSPOSE([1]data!$M$304:$O$308)</f>
         <v>300</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="17">
         <v>66921.899999999994</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="17">
         <v>2124</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="17">
         <v>1412140</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="17">
         <v>66921.899999999994</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="U12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="1">
-        <f>D4</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="E13" s="1">
         <v>300</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="17">
         <v>71584.646666666667</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="17">
         <v>2266</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="17">
         <v>1393978</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="17">
         <v>71584.646666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1">
-        <f>D5</f>
+        <f t="shared" si="7"/>
         <v>2010</v>
       </c>
       <c r="E14" s="1">
         <v>300</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="17">
         <v>74532.243333333332</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="17">
         <v>2282</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="17">
         <v>1280122</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="17">
         <v>74532.243333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="str">
-        <f t="shared" ref="A15:A35" si="7">T15</f>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f t="shared" ref="A15:B15" si="8">T15</f>
         <v>Educational Attainment</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="1">
-        <f>D6</f>
+        <f t="shared" si="7"/>
         <v>1990</v>
       </c>
       <c r="E15" s="1">
         <f t="array" ref="E15:I17">TRANSPOSE([1]data!$P$304:$R$308)</f>
         <v>300</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="15">
         <v>0.6668056421166666</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="15">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="15">
         <v>0.88700000000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="15">
         <v>0.6668056421166666</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="U15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1">
-        <f>D7</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="E16" s="1">
         <v>300</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="15">
         <v>0.75627566650666656</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="15">
         <v>0.49199999999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="15">
         <v>0.94199999999999995</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="15">
         <v>0.75627566650666656</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1">
-        <f>D8</f>
+        <f t="shared" si="7"/>
         <v>2010</v>
       </c>
       <c r="E17" s="1">
         <v>300</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="15">
         <v>0.81536666666666646</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="15">
         <v>0.56300000000000006</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="15">
         <v>0.96099999999999997</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="15">
         <v>0.81536666666666646</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="str">
-        <f t="shared" ref="A18:A35" si="8">T18</f>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f t="shared" ref="A18:B18" si="9">T18</f>
         <v>Poverty Rate</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D35" si="9">D15</f>
+        <f t="shared" ref="D18:D20" si="10">D15</f>
         <v>1990</v>
       </c>
       <c r="E18" s="1">
         <f t="array" ref="E18:I20">TRANSPOSE([1]data!$S$304:$U$308)</f>
         <v>300</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="15">
         <v>0.15505159364000004</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="15">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="15">
         <v>0.52100000000000002</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="15">
         <v>0.15505159364000004</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="U18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="E19" s="1">
         <v>300</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="15">
         <v>0.13331666666666669</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="15">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="15">
         <v>0.45400000000000001</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="15">
         <v>0.13331666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2010</v>
       </c>
       <c r="E20" s="1">
         <v>300</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="15">
         <v>0.16881444443333324</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="15">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="15">
         <v>0.40100000000000002</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="15">
         <v>0.16881444443333324</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="str">
-        <f t="shared" ref="A21:A35" si="10">T21</f>
-        <v>1st Quintile Income</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7DA97-FD4D-4C35-AC00-1B03464F34AD}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="str">
+        <f>L3</f>
+        <v>GINI</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="T21" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="str">
+        <f>L6</f>
+        <v>Unemployment</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="str">
+        <f>L9</f>
+        <v>Income</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>L12</f>
+        <v>Population</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>L15</f>
+        <v>Educational Attainment</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>L18</f>
+        <v>Poverty Rate</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="L21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="D22" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="D23" s="1">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="str">
-        <f t="shared" ref="A24:A35" si="11">T24</f>
-        <v>2nd Quintile Income</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="T24" s="1" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="L24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="D25" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="D26" s="1">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="str">
-        <f t="shared" ref="A27:A35" si="12">T27</f>
-        <v>3rd Quintile Income</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="T27" s="1" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="L27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="D28" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="D29" s="1">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="str">
-        <f t="shared" ref="A30:A35" si="13">T30</f>
-        <v>4th Quintile Income</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="T30" s="1" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="11"/>
+      <c r="L30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="D31" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="D32" s="1">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="str">
-        <f t="shared" ref="A33:A35" si="14">T33</f>
-        <v>5th Quintile Income</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="T33" s="1" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="D34" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="D35" s="1">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="34">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>